--- a/Material Properties.xlsx
+++ b/Material Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80C00C6-EA06-4AF7-A8AD-71B019C1D729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F17155-7D41-4101-834C-E2A5F34F9944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-225" windowWidth="25440" windowHeight="15390" xr2:uid="{39838462-5C6B-42D1-9B60-BE490CBF5420}"/>
+    <workbookView xWindow="25080" yWindow="-165" windowWidth="25440" windowHeight="15390" xr2:uid="{39838462-5C6B-42D1-9B60-BE490CBF5420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Material</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>MoE/Density</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>U-238 Metal</t>
+  </si>
+  <si>
+    <t>As-Cast</t>
   </si>
 </sst>
 </file>
@@ -300,10 +309,10 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8564D6F7-204A-4FBC-858D-7B70D6599497}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,45 +657,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,11 +856,11 @@
         <v>9.6799999999999997E-2</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S19" si="0">F4/R4</f>
+        <f t="shared" ref="S4:S20" si="0">F4/R4</f>
         <v>340909.09090909094</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T19" si="1">E4/F4</f>
+        <f t="shared" ref="T4:T20" si="1">E4/F4</f>
         <v>0.30909090909090908</v>
       </c>
     </row>
@@ -1085,6 +1094,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -1636,6 +1648,64 @@
       <c r="T19">
         <f t="shared" si="1"/>
         <v>0.20067567567567568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>27600</v>
+      </c>
+      <c r="F20">
+        <v>58000</v>
+      </c>
+      <c r="G20">
+        <v>29000</v>
+      </c>
+      <c r="H20">
+        <v>185</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>0.22</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.181E-5</v>
+      </c>
+      <c r="N20">
+        <v>10.6</v>
+      </c>
+      <c r="O20">
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3.5879999999999999E-4</v>
+      </c>
+      <c r="Q20">
+        <v>2070.1</v>
+      </c>
+      <c r="R20">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>84192.190448541165</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0.47586206896551725</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T19">
+  <conditionalFormatting sqref="T3:T20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Material Properties.xlsx
+++ b/Material Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F17155-7D41-4101-834C-E2A5F34F9944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09644D0A-F074-4DFB-A90B-82B0D9EB2E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-165" windowWidth="25440" windowHeight="15390" xr2:uid="{39838462-5C6B-42D1-9B60-BE490CBF5420}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Material</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>As-Cast</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>932 Bearing Bronze</t>
+  </si>
+  <si>
+    <t>M07</t>
   </si>
 </sst>
 </file>
@@ -634,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8564D6F7-204A-4FBC-858D-7B70D6599497}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,11 +865,11 @@
         <v>9.6799999999999997E-2</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S20" si="0">F4/R4</f>
+        <f t="shared" ref="S4:S21" si="0">F4/R4</f>
         <v>340909.09090909094</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T20" si="1">E4/F4</f>
+        <f t="shared" ref="T4:T21" si="1">E4/F4</f>
         <v>0.30909090909090908</v>
       </c>
     </row>
@@ -1706,6 +1715,55 @@
       <c r="T20">
         <f t="shared" si="1"/>
         <v>0.47586206896551725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>932</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>14500</v>
+      </c>
+      <c r="F21">
+        <v>34800</v>
+      </c>
+      <c r="G21">
+        <v>18100</v>
+      </c>
+      <c r="H21">
+        <v>65</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5.6690000000000003E-6</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="P21" s="2">
+        <v>7.8899999999999999E-4</v>
+      </c>
+      <c r="Q21">
+        <v>1570</v>
+      </c>
+      <c r="R21">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>107739.93808049535</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T20">
+  <conditionalFormatting sqref="T3:T21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
